--- a/weather.xlsx
+++ b/weather.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>City</t>
   </si>
@@ -66,19 +66,16 @@
     <t>City ID</t>
   </si>
   <si>
-    <t>indore</t>
-  </si>
-  <si>
     <t>jaipur</t>
   </si>
   <si>
-    <t>tokyo</t>
-  </si>
-  <si>
-    <t>seoul</t>
-  </si>
-  <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>pyongyang</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -425,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -480,10 +477,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -508,12 +505,12 @@
         <v>9</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -523,20 +520,14 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -546,7 +537,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -586,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="A2:C11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
